--- a/Data_frame/balancos_definitivos/MAGG3.xlsx
+++ b/Data_frame/balancos_definitivos/MAGG3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:AQ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,106 +649,6 @@
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2019</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2019</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2019</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -882,66 +782,6 @@
       <c r="AQ2" t="n">
         <v>6749557.76</v>
       </c>
-      <c r="AR2" t="n">
-        <v>276336</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>400220.992</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>456128.992</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>509384</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>514012.992</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1086096</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1184807.936</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1217939.968</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1452364.032</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>3897423.872</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>4034576.896</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>4202075.904</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>4575859.2</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>4623660.032</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>4574243.84</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>4619373.056</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>4724601.856</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>4704743.936</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>4417083.904</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>4496010.24</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1075,66 +915,6 @@
       <c r="AQ3" t="n">
         <v>2585886.976</v>
       </c>
-      <c r="AR3" t="n">
-        <v>101993</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>143023.008</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>137923.008</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>175896.992</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>176220</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>751929.024</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>848444.992</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>865737.9840000001</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>807494.976</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>2862182.912</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>2353440</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>2284687.872</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>2151915.008</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>2191664.128</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>2111764.992</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2093987.968</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>2189456.896</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>2156168.96</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1831574.016</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1900267.008</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1268,66 +1048,6 @@
       <c r="AQ4" t="n">
         <v>607252.992</v>
       </c>
-      <c r="AR4" t="n">
-        <v>17782</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>41978</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>18562</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>24828</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>25275</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>520608.992</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>528196</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>512918.016</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>404628</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2405716.992</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1891661.952</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1800333.056</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1584398.976</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>1544811.008</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>1438296.064</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1420930.048</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>1448231.04</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1426180.992</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1060060.992</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>1107015.936</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1461,66 +1181,6 @@
       <c r="AQ5" t="n">
         <v>4853</v>
       </c>
-      <c r="AR5" t="n">
-        <v>10097</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>5699</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1069</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>3715</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>7591</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>34493</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34831</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>31649</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>20968</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>3214</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1613</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>3310</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>1685</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1583</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1654,66 +1314,6 @@
       <c r="AQ6" t="n">
         <v>683878.0159999999</v>
       </c>
-      <c r="AR6" t="n">
-        <v>61261</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>76305</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>95609</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>120219</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>125285</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>175564</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>265870</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>302505.984</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>358577.984</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>402038.016</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>414412</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>424792.992</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>503555.008</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>580355.008</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>602081.9840000001</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>610201.9840000001</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>671481.9840000001</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>664542.976</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>699097.024</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>739849.9840000001</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1847,66 +1447,6 @@
       <c r="AQ7" t="n">
         <v>1062484.992</v>
       </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2040,66 +1580,6 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2233,66 +1713,6 @@
       <c r="AQ9" t="n">
         <v>168850</v>
       </c>
-      <c r="AR9" t="n">
-        <v>6368</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>5627</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>7025</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7728</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>8080</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>8287</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>9621</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>5974</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>9412</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>12157</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>17308</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>23044</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>31528</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>36304</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>40854</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>33925</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>40387</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>32802</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>35740</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>22330</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2426,66 +1846,6 @@
       <c r="AQ10" t="n">
         <v>14242</v>
       </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2619,66 +1979,6 @@
       <c r="AQ11" t="n">
         <v>44326</v>
       </c>
-      <c r="AR11" t="n">
-        <v>6485</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>13414</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>15658</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>19407</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>9989</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>12976</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9927</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>12691</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>13909</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>39057</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>28445</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>33208</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>30748</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>28611</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>30533</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>28931</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>29357</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>32643</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>36676</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>31071</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2812,66 +2112,6 @@
       <c r="AQ12" t="n">
         <v>168663.008</v>
       </c>
-      <c r="AR12" t="n">
-        <v>9019</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>79756</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>79380</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>82150</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>80904</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>77725</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>79634</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>93410</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>90717</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>29598</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>27053</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>24131</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>46837</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>53481</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>58477</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>79308</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>87342</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>105251</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>144572</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>161803.008</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3005,66 +2245,6 @@
       <c r="AQ13" t="n">
         <v>18149</v>
       </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3198,66 +2378,6 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AR14" t="n">
-        <v>4250</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>2112</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2139</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7280</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>8119</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5234</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>5257</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>3775</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>3740</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3391,66 +2511,6 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3584,66 +2644,6 @@
       <c r="AQ16" t="n">
         <v>17937</v>
       </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3777,66 +2777,6 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3970,66 +2910,6 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4163,66 +3043,6 @@
       <c r="AQ19" t="n">
         <v>57797</v>
       </c>
-      <c r="AR19" t="n">
-        <v>3835</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>4264</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3647</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3142</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>3654</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5096</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4085</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4656</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>20713</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>23912</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>22466</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>19662</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>42048</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>48873</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>51929</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>59665</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>66377</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>80752</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>119271</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>136460</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4356,66 +3176,6 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4549,66 +3309,6 @@
       <c r="AQ21" t="n">
         <v>46598</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4742,66 +3442,6 @@
       <c r="AQ22" t="n">
         <v>56001</v>
       </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4935,66 +3575,6 @@
       <c r="AQ23" t="n">
         <v>1415618.944</v>
       </c>
-      <c r="AR23" t="n">
-        <v>77318</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>88681</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>86600</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>80399</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>74570</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>73705</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>72643</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>73070</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>76263</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>150332</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>157572.992</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>157026</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>158311.008</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>160204.992</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>173200.992</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>166643.008</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>165346</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>163291.008</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>157766</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>148507.008</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5128,66 +3708,6 @@
       <c r="AQ24" t="n">
         <v>2523387.904</v>
       </c>
-      <c r="AR24" t="n">
-        <v>88006</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>88761</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>152226</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>170938</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>182319.008</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>182736.992</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>184086</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>185722</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>477888.992</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>855310.976</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>1496510.976</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>1736231.04</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>2218796.032</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>2218309.888</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>2230800.896</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>2279433.984</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>2282457.088</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>2280033.024</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>2283172.096</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>2285433.088</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5321,66 +3841,6 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5514,66 +3974,6 @@
       <c r="AQ26" t="n">
         <v>6749557.76</v>
       </c>
-      <c r="AR26" t="n">
-        <v>276336</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>400220.992</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>456128.992</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>509384</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>514012.992</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1086096</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>1184807.936</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1217939.968</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>1452364.032</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>3897423.872</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>4034576.896</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>4202075.904</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>4575859.2</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>4623660.032</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>4574243.84</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>4619373.056</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>4724601.856</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>4704743.936</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>4417083.904</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>4496010.24</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5707,66 +4107,6 @@
       <c r="AQ27" t="n">
         <v>2267066.88</v>
       </c>
-      <c r="AR27" t="n">
-        <v>155778</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>193407.008</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>223946</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>249616</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>237942</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>275831.008</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>370575.008</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>407278.016</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>450632</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>513764</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>518096</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>597395.008</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>676987.008</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>798252.992</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>977766.976</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>986860.992</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>1108610.048</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>1060358.976</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>1240050.944</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>1313414.016</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5900,66 +4240,6 @@
       <c r="AQ28" t="n">
         <v>165719.008</v>
       </c>
-      <c r="AR28" t="n">
-        <v>65285</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>26741</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>28094</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>33350</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>126105</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>134376.992</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>227792.992</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>311171.008</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>323920.992</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>49137</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>53147</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>71416</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>71732</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>78865</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>85883</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>103139</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>90330</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>94755</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>101007</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>118719</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6093,66 +4373,6 @@
       <c r="AQ29" t="n">
         <v>936241.024</v>
       </c>
-      <c r="AR29" t="n">
-        <v>12265</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>19562</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>10619</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>10701</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>12833</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>17319</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>18123</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>21719</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>20540</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>24395</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>20312</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>23702</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>42083</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>40878</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>55241</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>52677</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>51304</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>48213</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>34099</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>30778</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6286,66 +4506,6 @@
       <c r="AQ30" t="n">
         <v>91013</v>
       </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>3444</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3568</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3921</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>9956</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>11449</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>11562</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>13320</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>18584</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>14518</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>14604</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>14230</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>15156</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>16266</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>16412</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6479,66 +4639,6 @@
       <c r="AQ31" t="n">
         <v>695140.992</v>
       </c>
-      <c r="AR31" t="n">
-        <v>43714</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>62254</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>65034</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>62145</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>54095</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>74113</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>81650</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>70126</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>62687</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>63017</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>44002</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>40785</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>37994</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>20096</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>22371</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>11853</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>11915</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>12030</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>12171</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>11708</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6672,66 +4772,6 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6865,66 +4905,6 @@
       <c r="AQ33" t="n">
         <v>105</v>
       </c>
-      <c r="AR33" t="n">
-        <v>2637</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>7197</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>7197</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7058,66 +5038,6 @@
       <c r="AQ34" t="n">
         <v>378847.992</v>
       </c>
-      <c r="AR34" t="n">
-        <v>2063</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>81406</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>116631</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>139499.008</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1438</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>1454</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>902</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>4254</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>4053</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>367253.008</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>389179.984</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>449924.984</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>511852.984</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>639825.0159999999</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>799748.9840000001</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>804583.032</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>933633.976</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>883007.992</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>1076503.032</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>1135791.992</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7251,66 +5171,6 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
-      <c r="AR35" t="n">
-        <v>29814</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>43463</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>48560</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>42099</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>39412</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7444,66 +5304,6 @@
       <c r="AQ36" t="n">
         <v>0</v>
       </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7637,66 +5437,6 @@
       <c r="AQ37" t="n">
         <v>2236360.96</v>
       </c>
-      <c r="AR37" t="n">
-        <v>59471</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>143740</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>156915.008</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>176402</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>187738</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>175786</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>169590</v>
-      </c>
-      <c r="AY37" t="n">
-        <v>153600.992</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>327759.008</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>441544.992</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>559233.9840000001</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>654120</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>963806.0159999999</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>883955.968</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>637449.024</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>672670.976</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>638404.992</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>658094.0159999999</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>263268</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>261090</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7830,66 +5570,6 @@
       <c r="AQ38" t="n">
         <v>1628217.984</v>
       </c>
-      <c r="AR38" t="n">
-        <v>38787</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>122756</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>115988</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>136204.992</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>132636</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>121347</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>114618</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>99388</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>91416</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>75567</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>81340</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>66974</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>67896</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>65036</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>70772</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>67920</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>65376</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>63518</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>61141</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>58344</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8023,66 +5703,6 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8216,66 +5836,6 @@
       <c r="AQ40" t="n">
         <v>452696.992</v>
       </c>
-      <c r="AR40" t="n">
-        <v>13724</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>17601</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>35428</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>36981</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>30138</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>30666</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>31656</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>53312</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>211610</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>364838.016</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>475920</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>584820.992</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>891737.9840000001</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>814518.976</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>559795.008</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>597825.024</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>566244.992</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>588067.968</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>195516</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>195836.992</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8409,66 +5969,6 @@
       <c r="AQ41" t="n">
         <v>98180</v>
       </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>598</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>333</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>1446</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>1255</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>1700</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>1124</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>3056</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>2055</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>2120</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>2342</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8602,66 +6102,6 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8795,66 +6235,6 @@
       <c r="AQ43" t="n">
         <v>57266</v>
       </c>
-      <c r="AR43" t="n">
-        <v>6960</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>3383</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>5499</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>3216</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>24964</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>23773</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>23316</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>901</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>24733</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>1140</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>1376</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>1992</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>2726</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>3146</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>5182</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>5802</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>3728</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>4453</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>4491</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>4567</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8988,66 +6368,6 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9181,66 +6501,6 @@
       <c r="AQ45" t="n">
         <v>0</v>
       </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9374,66 +6634,6 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9567,66 +6767,6 @@
       <c r="AQ47" t="n">
         <v>2246129.92</v>
       </c>
-      <c r="AR47" t="n">
-        <v>61087</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>63074</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>75268</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>83366</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>88333</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>634478.976</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>644643.008</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>657060.992</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>673972.992</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>2942115.072</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>2957246.976</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>2950561.024</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>2935066.112</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>2941451.008</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>2959027.968</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>2959841.024</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>2977586.944</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>2986290.944</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>2913765.12</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>2921506.048</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9760,66 +6900,6 @@
       <c r="AQ48" t="n">
         <v>1576215.04</v>
       </c>
-      <c r="AR48" t="n">
-        <v>53521</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>53521</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>53629</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>53629</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>53629</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>630558.976</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>630558.976</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>636177.024</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>643651.008</v>
-      </c>
-      <c r="BA48" t="n">
-        <v>2889592.064</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>2897836.032</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>2898790.912</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>3002976</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>3002976</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>3006918.912</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>3006937.088</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>2934231.04</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>2934231.04</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>2937665.024</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>2937665.024</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9953,66 +7033,6 @@
       <c r="AQ49" t="n">
         <v>157731.008</v>
       </c>
-      <c r="AR49" t="n">
-        <v>3303</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>3864</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>13023</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>17842</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>18270</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>-10243</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>-5321</v>
-      </c>
-      <c r="AY49" t="n">
-        <v>-6331</v>
-      </c>
-      <c r="AZ49" t="n">
-        <v>10148</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>40726</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>44038</v>
-      </c>
-      <c r="BC49" t="n">
-        <v>40133</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>-72335</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>-70480</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>-70102</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>-62929</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>15841</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>17312</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>5301</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>10607</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10146,66 +7166,6 @@
       <c r="AQ50" t="n">
         <v>0</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10339,66 +7299,6 @@
       <c r="AQ51" t="n">
         <v>0</v>
       </c>
-      <c r="AR51" t="n">
-        <v>4263</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>4263</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>4263</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>4263</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>16434</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>16434</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>19405</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>16434</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>20174</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>20174</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>20174</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>20174</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>4425</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>4425</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>4425</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>4425</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>27515</v>
-      </c>
-      <c r="BI51" t="n">
-        <v>27515</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>3892</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>2457</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10532,66 +7432,6 @@
       <c r="AQ52" t="n">
         <v>-4191</v>
       </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>1426</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>4353</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>7632</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>-2271</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>10781</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>-8377</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>-4801</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>-8537</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>4530</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>17786</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>11408</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>7233</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>-31599</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>-28643</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10725,66 +7565,6 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>-1494</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>-580</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10918,66 +7698,6 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11111,66 +7831,6 @@
       <c r="AQ55" t="n">
         <v>516375.008</v>
       </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11304,66 +7964,6 @@
       <c r="AQ56" t="n">
         <v>0</v>
       </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11497,26 +8097,6 @@
       <c r="AQ57" t="n">
         <v>0</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="inlineStr"/>
-      <c r="AV57" t="inlineStr"/>
-      <c r="AW57" t="inlineStr"/>
-      <c r="AX57" t="inlineStr"/>
-      <c r="AY57" t="inlineStr"/>
-      <c r="AZ57" t="inlineStr"/>
-      <c r="BA57" t="inlineStr"/>
-      <c r="BB57" t="inlineStr"/>
-      <c r="BC57" t="inlineStr"/>
-      <c r="BD57" t="inlineStr"/>
-      <c r="BE57" t="inlineStr"/>
-      <c r="BF57" t="inlineStr"/>
-      <c r="BG57" t="inlineStr"/>
-      <c r="BH57" t="inlineStr"/>
-      <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11650,26 +8230,6 @@
       <c r="AQ58" t="n">
         <v>0</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
-      <c r="AU58" t="inlineStr"/>
-      <c r="AV58" t="inlineStr"/>
-      <c r="AW58" t="inlineStr"/>
-      <c r="AX58" t="inlineStr"/>
-      <c r="AY58" t="inlineStr"/>
-      <c r="AZ58" t="inlineStr"/>
-      <c r="BA58" t="inlineStr"/>
-      <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="inlineStr"/>
-      <c r="BE58" t="inlineStr"/>
-      <c r="BF58" t="inlineStr"/>
-      <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="inlineStr"/>
-      <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11803,64 +8363,6 @@
       <c r="AQ59" t="n">
         <v>1188204.032</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="n">
-        <v>84587</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>94026</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>101929</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>105174.992</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>104532</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>117302</v>
-      </c>
-      <c r="AY59" t="n">
-        <v>126226</v>
-      </c>
-      <c r="AZ59" t="n">
-        <v>140149.984</v>
-      </c>
-      <c r="BA59" t="n">
-        <v>160918</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>184286</v>
-      </c>
-      <c r="BC59" t="n">
-        <v>209136.992</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>245867.008</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>248776.992</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>282504.992</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>304270.016</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>302881.024</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>302847.008</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>313900</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>330089.984</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11994,64 +8496,6 @@
       <c r="AQ60" t="n">
         <v>-757734.976</v>
       </c>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="n">
-        <v>-48710</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-56886</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-59092</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-59708</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-62475</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-69463</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>-71282</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>-79664.992</v>
-      </c>
-      <c r="BA60" t="n">
-        <v>-91657</v>
-      </c>
-      <c r="BB60" t="n">
-        <v>-97986</v>
-      </c>
-      <c r="BC60" t="n">
-        <v>-108195</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-137838</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>-139920</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-151118</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-164708</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>-168455.024</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>-159259.008</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-168976</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-185082</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12185,64 +8629,6 @@
       <c r="AQ61" t="n">
         <v>430468.992</v>
       </c>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="n">
-        <v>35877</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>37140</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>42837</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>45466.992</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>42057</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>47839</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>54944</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>60484.992</v>
-      </c>
-      <c r="BA61" t="n">
-        <v>69261</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>86300</v>
-      </c>
-      <c r="BC61" t="n">
-        <v>100942</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>108029</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>108857</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>131387</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>139562</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>134426</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>143588</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>144924</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>145008</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12376,64 +8762,6 @@
       <c r="AQ62" t="n">
         <v>-86269</v>
       </c>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="n">
-        <v>-16895</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>-18318</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-18423</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-16598</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>-18964</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>-18634</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>-20391</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>-24166</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>-25752</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>-31465</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>-42886</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>-52353.992</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>-56647</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>-61768</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>-64477</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>-65338</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>-63327</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-67120</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-67031</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12567,64 +8895,6 @@
       <c r="AQ63" t="n">
         <v>-68742</v>
       </c>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="n">
-        <v>-8864</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-9343</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-11188</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-14961</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-22109</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-14889</v>
-      </c>
-      <c r="AY63" t="n">
-        <v>-17680</v>
-      </c>
-      <c r="AZ63" t="n">
-        <v>-25215</v>
-      </c>
-      <c r="BA63" t="n">
-        <v>-44266</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>-38742</v>
-      </c>
-      <c r="BC63" t="n">
-        <v>-52989</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-59977</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-47555</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-56231</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-60558</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>-51590</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>-57945</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-64658</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-61995</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12758,64 +9028,6 @@
       <c r="AQ64" t="n">
         <v>0</v>
       </c>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>-1473</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>-3103</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>-2770</v>
-      </c>
-      <c r="BD64" t="n">
-        <v>-2772</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>-1486</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>-1066</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>-1152</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>-1296</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>-2077</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>-1557</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12949,64 +9161,6 @@
       <c r="AQ65" t="n">
         <v>5479</v>
       </c>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="n">
-        <v>219</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>1795</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>3779</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>419</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>228</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>158</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>374</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>149</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>542</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>357</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>218</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>1429</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>339</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>9224</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>-8755</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>1389</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>202</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>8420</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>332</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13140,64 +9294,6 @@
       <c r="AQ66" t="n">
         <v>-3107</v>
       </c>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13331,64 +9427,6 @@
       <c r="AQ67" t="n">
         <v>984</v>
       </c>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13522,64 +9560,6 @@
       <c r="AQ68" t="n">
         <v>-142483.008</v>
       </c>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="n">
-        <v>-7048</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>-5606</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-8636</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-7376</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>-1847</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-3893</v>
-      </c>
-      <c r="AY68" t="n">
-        <v>-3473</v>
-      </c>
-      <c r="AZ68" t="n">
-        <v>-5264</v>
-      </c>
-      <c r="BA68" t="n">
-        <v>-4123</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>-862</v>
-      </c>
-      <c r="BC68" t="n">
-        <v>4196</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>4819</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>11258</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>2539</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>1636</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>-881</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>-6133</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>-74143</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>-4239</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13713,64 +9693,6 @@
       <c r="AQ69" t="n">
         <v>13271</v>
       </c>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="n">
-        <v>2005</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>-773</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>8813</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>-3287</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>29091</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>8441</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>5431</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>-3259</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>9154</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>15230</v>
-      </c>
-      <c r="BC69" t="n">
-        <v>25399</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>32911</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>42464</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>47859</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>49340</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>50163</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>43048</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>40884</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>40765</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13904,64 +9826,6 @@
       <c r="AQ70" t="n">
         <v>-155754</v>
       </c>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="n">
-        <v>-9053</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-4833</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-17449</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-4089</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-30938</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-12334</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>-8904</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>-2005</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>-13277</v>
-      </c>
-      <c r="BB70" t="n">
-        <v>-16092</v>
-      </c>
-      <c r="BC70" t="n">
-        <v>-21203</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>-28092</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>-31206</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>-45320</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-47704</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>-51044</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>-49181</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-115027</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-45004</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14095,26 +9959,6 @@
       <c r="AQ71" t="n">
         <v>0</v>
       </c>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
-      <c r="AU71" t="inlineStr"/>
-      <c r="AV71" t="inlineStr"/>
-      <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
-      <c r="AY71" t="inlineStr"/>
-      <c r="AZ71" t="inlineStr"/>
-      <c r="BA71" t="inlineStr"/>
-      <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
-      <c r="BG71" t="inlineStr"/>
-      <c r="BH71" t="inlineStr"/>
-      <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14248,26 +10092,6 @@
       <c r="AQ72" t="n">
         <v>0</v>
       </c>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
-      <c r="AU72" t="inlineStr"/>
-      <c r="AV72" t="inlineStr"/>
-      <c r="AW72" t="inlineStr"/>
-      <c r="AX72" t="inlineStr"/>
-      <c r="AY72" t="inlineStr"/>
-      <c r="AZ72" t="inlineStr"/>
-      <c r="BA72" t="inlineStr"/>
-      <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="inlineStr"/>
-      <c r="BF72" t="inlineStr"/>
-      <c r="BG72" t="inlineStr"/>
-      <c r="BH72" t="inlineStr"/>
-      <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14401,26 +10225,6 @@
       <c r="AQ73" t="n">
         <v>0</v>
       </c>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
-      <c r="AU73" t="inlineStr"/>
-      <c r="AV73" t="inlineStr"/>
-      <c r="AW73" t="inlineStr"/>
-      <c r="AX73" t="inlineStr"/>
-      <c r="AY73" t="inlineStr"/>
-      <c r="AZ73" t="inlineStr"/>
-      <c r="BA73" t="inlineStr"/>
-      <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr"/>
-      <c r="BE73" t="inlineStr"/>
-      <c r="BF73" t="inlineStr"/>
-      <c r="BG73" t="inlineStr"/>
-      <c r="BH73" t="inlineStr"/>
-      <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14554,64 +10358,6 @@
       <c r="AQ74" t="n">
         <v>136331.008</v>
       </c>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="n">
-        <v>3289</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>5668</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>8369</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>6951</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-635</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>10581</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>13774</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>5989</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>-5811</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>12485</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>6711</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>-826</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>16252</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>23665</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>6342</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>16854</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>15089</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>-54654</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>10518</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14745,64 +10491,6 @@
       <c r="AQ75" t="n">
         <v>-53518</v>
       </c>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="n">
-        <v>-2293</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-1322</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>-1883</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>-527</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>-3078</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>-4328</v>
-      </c>
-      <c r="AY75" t="n">
-        <v>-6535</v>
-      </c>
-      <c r="AZ75" t="n">
-        <v>-871</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>-5764</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>-6870</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>-7890</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-2497</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>-18738</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>-13020</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>-21032</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>-2761</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>-23232</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-21861</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-24086</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14936,64 +10624,6 @@
       <c r="AQ76" t="n">
         <v>48482</v>
       </c>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="n">
-        <v>430</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>-619</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>-505</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>513</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>1442</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>-1011</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>571</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>3841</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>3198</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>-2039</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>-2557</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>-3889</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>7016</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>2611</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>8312</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>4780</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>15376</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>37684</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>17438</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15127,26 +10757,6 @@
       <c r="AQ77" t="n">
         <v>0</v>
       </c>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
-      <c r="AU77" t="inlineStr"/>
-      <c r="AV77" t="inlineStr"/>
-      <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
-      <c r="AY77" t="inlineStr"/>
-      <c r="AZ77" t="inlineStr"/>
-      <c r="BA77" t="inlineStr"/>
-      <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
-      <c r="BD77" t="inlineStr"/>
-      <c r="BE77" t="inlineStr"/>
-      <c r="BF77" t="inlineStr"/>
-      <c r="BG77" t="inlineStr"/>
-      <c r="BH77" t="inlineStr"/>
-      <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15280,26 +10890,6 @@
       <c r="AQ78" t="n">
         <v>0</v>
       </c>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
-      <c r="AU78" t="inlineStr"/>
-      <c r="AV78" t="inlineStr"/>
-      <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
-      <c r="AY78" t="inlineStr"/>
-      <c r="AZ78" t="inlineStr"/>
-      <c r="BA78" t="inlineStr"/>
-      <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="inlineStr"/>
-      <c r="BE78" t="inlineStr"/>
-      <c r="BF78" t="inlineStr"/>
-      <c r="BG78" t="inlineStr"/>
-      <c r="BH78" t="inlineStr"/>
-      <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15433,64 +11023,6 @@
       <c r="AQ79" t="n">
         <v>0</v>
       </c>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15623,64 +11155,6 @@
       </c>
       <c r="AQ80" t="n">
         <v>131295</v>
-      </c>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="n">
-        <v>1426</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>5981</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>6937</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>-2271</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>5242</v>
-      </c>
-      <c r="AY80" t="n">
-        <v>7810</v>
-      </c>
-      <c r="AZ80" t="n">
-        <v>8959</v>
-      </c>
-      <c r="BA80" t="n">
-        <v>-8377</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>3576</v>
-      </c>
-      <c r="BC80" t="n">
-        <v>-3736</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>-7212</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>4530</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>13256</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>-6378</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>18873</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>7233</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>-38832</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>3870</v>
       </c>
     </row>
   </sheetData>
